--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -36,11 +36,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -907,7 +908,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-20T20:01:53-07:00</t>
+    <t>2023-10-27T18:11:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -100,132 +100,132 @@
     <t>dataset_type</t>
   </si>
   <si>
-    <t>HiFi-Slide</t>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Auto-fluorescence</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>CosMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>DBiT</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+  </si>
+  <si>
+    <t>SIMS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
+  </si>
+  <si>
+    <t>Cell DIVE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
+  </si>
+  <si>
+    <t>CODEX</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
+  </si>
+  <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>HiFi-Slides</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
-    <t>MIBI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
-    <t>Auto-fluorescence</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
-  </si>
-  <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
-  </si>
-  <si>
-    <t>SIMS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
-  </si>
-  <si>
-    <t>Cell DIVE</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000159</t>
-  </si>
-  <si>
-    <t>CODEX</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
-  </si>
-  <si>
-    <t>GeoMx (NGS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
-  </si>
-  <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>2D Imaging Mass Cytometry</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
-  </si>
-  <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -325,7 +325,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:33:32-08:00</t>
+    <t>2023-11-22T10:42:33-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -100,6 +100,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -220,12 +226,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -325,7 +325,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:42:33-08:00</t>
+    <t>2023-11-24T09:49:09-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -325,7 +325,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:49:09-08:00</t>
+    <t>2024-01-29T14:17:40-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -410,13 +410,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -443,10 +443,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s" s="8">
         <v>73</v>
       </c>
     </row>
@@ -471,266 +471,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -747,37 +747,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.53515625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.60546875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>81</v>
       </c>
     </row>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -196,6 +196,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -325,7 +331,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:17:40-08:00</t>
+    <t>2024-04-01T14:53:22-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -433,27 +439,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -732,6 +738,14 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -755,30 +769,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -148,6 +148,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -244,6 +250,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -331,7 +343,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:53:22-07:00</t>
+    <t>2024-08-03T11:47:37-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -439,27 +451,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -470,7 +482,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -746,6 +758,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -769,30 +797,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -226,6 +226,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -250,6 +256,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -343,7 +355,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:47:37-07:00</t>
+    <t>2025-01-08T12:47:53-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -451,27 +463,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -482,7 +494,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -774,6 +786,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -797,30 +825,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -43,11 +43,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -172,10 +172,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -274,6 +274,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -328,6 +334,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>contributors_path</t>
   </si>
   <si>
@@ -355,7 +373,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:47:53-08:00</t>
+    <t>2025-04-24T10:53:09-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -463,27 +481,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -494,7 +512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -802,6 +820,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -825,30 +867,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -22,62 +22,59 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -86,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="116">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -112,34 +109,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -148,36 +283,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -208,16 +313,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -226,24 +325,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -274,18 +361,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -298,12 +373,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -316,34 +385,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>contributors_path</t>
@@ -373,7 +424,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:53:09-07:00</t>
+    <t>2025-10-20T14:52:17-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -481,27 +532,27 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>88</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="G2" t="s" s="8">
-        <v>89</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -512,7 +563,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -844,6 +895,78 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -867,30 +990,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>90</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>96</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
+++ b/nano-splits/v2.0.0/nano-splits-v2.0.0.xlsx
@@ -424,7 +424,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-20T14:52:17-07:00</t>
+    <t>2025-10-21T13:32:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
